--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Calr-Itga3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Calr-Itga3.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>82.73729466666667</v>
+        <v>73.38544233333333</v>
       </c>
       <c r="H2">
-        <v>248.211884</v>
+        <v>220.156327</v>
       </c>
       <c r="I2">
-        <v>0.09847102321391109</v>
+        <v>0.1214979676060253</v>
       </c>
       <c r="J2">
-        <v>0.09847102321391109</v>
+        <v>0.1214979676060253</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>15.66014366666667</v>
+        <v>15.47987166666667</v>
       </c>
       <c r="N2">
-        <v>46.980431</v>
+        <v>46.439615</v>
       </c>
       <c r="O2">
-        <v>0.735156956526318</v>
+        <v>0.7960757698994193</v>
       </c>
       <c r="P2">
-        <v>0.7351569565263179</v>
+        <v>0.7960757698994194</v>
       </c>
       <c r="Q2">
-        <v>1295.677921071334</v>
+        <v>1135.997229521567</v>
       </c>
       <c r="R2">
-        <v>11661.10128964201</v>
+        <v>10223.97506569411</v>
       </c>
       <c r="S2">
-        <v>0.07239165773197129</v>
+        <v>0.09672158810318129</v>
       </c>
       <c r="T2">
-        <v>0.07239165773197127</v>
+        <v>0.09672158810318129</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>82.73729466666667</v>
+        <v>73.38544233333333</v>
       </c>
       <c r="H3">
-        <v>248.211884</v>
+        <v>220.156327</v>
       </c>
       <c r="I3">
-        <v>0.09847102321391109</v>
+        <v>0.1214979676060253</v>
       </c>
       <c r="J3">
-        <v>0.09847102321391109</v>
+        <v>0.1214979676060253</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>2.975427</v>
       </c>
       <c r="O3">
-        <v>0.04655993593771484</v>
+        <v>0.05100527512565552</v>
       </c>
       <c r="P3">
-        <v>0.04655993593771483</v>
+        <v>0.05100527512565553</v>
       </c>
       <c r="Q3">
-        <v>82.05959348605199</v>
+        <v>72.784342175181</v>
       </c>
       <c r="R3">
-        <v>738.536341374468</v>
+        <v>655.059079576629</v>
       </c>
       <c r="S3">
-        <v>0.004584804532560931</v>
+        <v>0.006197037264953303</v>
       </c>
       <c r="T3">
-        <v>0.004584804532560931</v>
+        <v>0.006197037264953303</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>82.73729466666667</v>
+        <v>73.38544233333333</v>
       </c>
       <c r="H4">
-        <v>248.211884</v>
+        <v>220.156327</v>
       </c>
       <c r="I4">
-        <v>0.09847102321391109</v>
+        <v>0.1214979676060253</v>
       </c>
       <c r="J4">
-        <v>0.09847102321391109</v>
+        <v>0.1214979676060253</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -682,28 +682,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.08833166666666666</v>
+        <v>0.171678</v>
       </c>
       <c r="N4">
-        <v>0.264995</v>
+        <v>0.515034</v>
       </c>
       <c r="O4">
-        <v>0.004146682215297079</v>
+        <v>0.008828800326496623</v>
       </c>
       <c r="P4">
-        <v>0.004146682215297079</v>
+        <v>0.008828800326496624</v>
       </c>
       <c r="Q4">
-        <v>7.308323133397777</v>
+        <v>12.598665968902</v>
       </c>
       <c r="R4">
-        <v>65.77490820058</v>
+        <v>113.387993720118</v>
       </c>
       <c r="S4">
-        <v>0.0004083280406832309</v>
+        <v>0.001072681296068752</v>
       </c>
       <c r="T4">
-        <v>0.0004083280406832309</v>
+        <v>0.001072681296068752</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>82.73729466666667</v>
+        <v>73.38544233333333</v>
       </c>
       <c r="H5">
-        <v>248.211884</v>
+        <v>220.156327</v>
       </c>
       <c r="I5">
-        <v>0.09847102321391109</v>
+        <v>0.1214979676060253</v>
       </c>
       <c r="J5">
-        <v>0.09847102321391109</v>
+        <v>0.1214979676060253</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.552757666666667</v>
+        <v>2.688466333333334</v>
       </c>
       <c r="N5">
-        <v>13.658273</v>
+        <v>8.065399000000001</v>
       </c>
       <c r="O5">
-        <v>0.2137267410357641</v>
+        <v>0.1382584398787761</v>
       </c>
       <c r="P5">
-        <v>0.2137267410357641</v>
+        <v>0.1382584398787761</v>
       </c>
       <c r="Q5">
-        <v>376.6828526129258</v>
+        <v>197.2942910699415</v>
       </c>
       <c r="R5">
-        <v>3390.145673516332</v>
+        <v>1775.648619629473</v>
       </c>
       <c r="S5">
-        <v>0.02104589087796629</v>
+        <v>0.01679811944965113</v>
       </c>
       <c r="T5">
-        <v>0.02104589087796629</v>
+        <v>0.01679811944965113</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>82.73729466666667</v>
+        <v>73.38544233333333</v>
       </c>
       <c r="H6">
-        <v>248.211884</v>
+        <v>220.156327</v>
       </c>
       <c r="I6">
-        <v>0.09847102321391109</v>
+        <v>0.1214979676060253</v>
       </c>
       <c r="J6">
-        <v>0.09847102321391109</v>
+        <v>0.1214979676060253</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -806,28 +806,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.008727</v>
+        <v>0.113399</v>
       </c>
       <c r="N6">
-        <v>0.026181</v>
+        <v>0.340197</v>
       </c>
       <c r="O6">
-        <v>0.0004096842849061034</v>
+        <v>0.005831714769652435</v>
       </c>
       <c r="P6">
-        <v>0.0004096842849061033</v>
+        <v>0.005831714769652436</v>
       </c>
       <c r="Q6">
-        <v>0.722048370556</v>
+        <v>8.321835775157668</v>
       </c>
       <c r="R6">
-        <v>6.498435335003999</v>
+        <v>74.89652197641901</v>
       </c>
       <c r="S6">
-        <v>4.034203072936347E-05</v>
+        <v>0.0007085414921708108</v>
       </c>
       <c r="T6">
-        <v>4.034203072936346E-05</v>
+        <v>0.0007085414921708109</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>711.2156680000001</v>
       </c>
       <c r="I7">
-        <v>0.2821546391135941</v>
+        <v>0.3924995450689984</v>
       </c>
       <c r="J7">
-        <v>0.2821546391135941</v>
+        <v>0.3924995450689983</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>15.66014366666667</v>
+        <v>15.47987166666667</v>
       </c>
       <c r="N7">
-        <v>46.980431</v>
+        <v>46.439615</v>
       </c>
       <c r="O7">
-        <v>0.735156956526318</v>
+        <v>0.7960757698994193</v>
       </c>
       <c r="P7">
-        <v>0.7351569565263179</v>
+        <v>0.7960757698994194</v>
       </c>
       <c r="Q7">
-        <v>3712.579846288102</v>
+        <v>3669.842422654203</v>
       </c>
       <c r="R7">
-        <v>33413.21861659292</v>
+        <v>33028.58180388783</v>
       </c>
       <c r="S7">
-        <v>0.2074279457605314</v>
+        <v>0.3124593775259747</v>
       </c>
       <c r="T7">
-        <v>0.2074279457605314</v>
+        <v>0.3124593775259747</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>711.2156680000001</v>
       </c>
       <c r="I8">
-        <v>0.2821546391135941</v>
+        <v>0.3924995450689984</v>
       </c>
       <c r="J8">
-        <v>0.2821546391135941</v>
+        <v>0.3924995450689983</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>2.975427</v>
       </c>
       <c r="O8">
-        <v>0.04655993593771484</v>
+        <v>0.05100527512565552</v>
       </c>
       <c r="P8">
-        <v>0.04655993593771483</v>
+        <v>0.05100527512565553</v>
       </c>
       <c r="Q8">
         <v>235.130033487804</v>
@@ -948,10 +948,10 @@
         <v>2116.170301390236</v>
       </c>
       <c r="S8">
-        <v>0.01313710192165799</v>
+        <v>0.02001954728293889</v>
       </c>
       <c r="T8">
-        <v>0.01313710192165799</v>
+        <v>0.02001954728293889</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>711.2156680000001</v>
       </c>
       <c r="I9">
-        <v>0.2821546391135941</v>
+        <v>0.3924995450689984</v>
       </c>
       <c r="J9">
-        <v>0.2821546391135941</v>
+        <v>0.3924995450689983</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -992,28 +992,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.08833166666666666</v>
+        <v>0.171678</v>
       </c>
       <c r="N9">
-        <v>0.264995</v>
+        <v>0.515034</v>
       </c>
       <c r="O9">
-        <v>0.004146682215297079</v>
+        <v>0.008828800326496623</v>
       </c>
       <c r="P9">
-        <v>0.004146682215297079</v>
+        <v>0.008828800326496624</v>
       </c>
       <c r="Q9">
-        <v>20.94095510462889</v>
+        <v>40.700027816968</v>
       </c>
       <c r="R9">
-        <v>188.46859594166</v>
+        <v>366.300250352712</v>
       </c>
       <c r="S9">
-        <v>0.001170005623975906</v>
+        <v>0.003465300111654949</v>
       </c>
       <c r="T9">
-        <v>0.001170005623975906</v>
+        <v>0.003465300111654949</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>711.2156680000001</v>
       </c>
       <c r="I10">
-        <v>0.2821546391135941</v>
+        <v>0.3924995450689984</v>
       </c>
       <c r="J10">
-        <v>0.2821546391135941</v>
+        <v>0.3924995450689983</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.552757666666667</v>
+        <v>2.688466333333334</v>
       </c>
       <c r="N10">
-        <v>13.658273</v>
+        <v>8.065399000000001</v>
       </c>
       <c r="O10">
-        <v>0.2137267410357641</v>
+        <v>0.1382584398787761</v>
       </c>
       <c r="P10">
-        <v>0.2137267410357641</v>
+        <v>0.1382584398787761</v>
       </c>
       <c r="Q10">
-        <v>1079.330861713485</v>
+        <v>637.3597930523927</v>
       </c>
       <c r="R10">
-        <v>9713.977755421365</v>
+        <v>5736.238137471533</v>
       </c>
       <c r="S10">
-        <v>0.0603039914858706</v>
+        <v>0.05426637475436907</v>
       </c>
       <c r="T10">
-        <v>0.06030399148587059</v>
+        <v>0.05426637475436906</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>711.2156680000001</v>
       </c>
       <c r="I11">
-        <v>0.2821546391135941</v>
+        <v>0.3924995450689984</v>
       </c>
       <c r="J11">
-        <v>0.2821546391135941</v>
+        <v>0.3924995450689983</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1116,28 +1116,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.008727</v>
+        <v>0.113399</v>
       </c>
       <c r="N11">
-        <v>0.026181</v>
+        <v>0.340197</v>
       </c>
       <c r="O11">
-        <v>0.0004096842849061034</v>
+        <v>0.005831714769652435</v>
       </c>
       <c r="P11">
-        <v>0.0004096842849061033</v>
+        <v>0.005831714769652436</v>
       </c>
       <c r="Q11">
-        <v>2.068926378212</v>
+        <v>26.88371517851067</v>
       </c>
       <c r="R11">
-        <v>18.620337403908</v>
+        <v>241.953436606596</v>
       </c>
       <c r="S11">
-        <v>0.0001155943215581925</v>
+        <v>0.002288945394060739</v>
       </c>
       <c r="T11">
-        <v>0.0001155943215581924</v>
+        <v>0.002288945394060739</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>277.340215</v>
+        <v>138.1628113333333</v>
       </c>
       <c r="H12">
-        <v>832.0206450000001</v>
+        <v>414.488434</v>
       </c>
       <c r="I12">
-        <v>0.3300805865050695</v>
+        <v>0.2287442882675098</v>
       </c>
       <c r="J12">
-        <v>0.3300805865050695</v>
+        <v>0.2287442882675098</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>15.66014366666667</v>
+        <v>15.47987166666667</v>
       </c>
       <c r="N12">
-        <v>46.980431</v>
+        <v>46.439615</v>
       </c>
       <c r="O12">
-        <v>0.735156956526318</v>
+        <v>0.7960757698994193</v>
       </c>
       <c r="P12">
-        <v>0.7351569565263179</v>
+        <v>0.7960757698994194</v>
       </c>
       <c r="Q12">
-        <v>4343.187611444222</v>
+        <v>2138.742588545879</v>
       </c>
       <c r="R12">
-        <v>39088.688502998</v>
+        <v>19248.68329691291</v>
       </c>
       <c r="S12">
-        <v>0.2426610393834889</v>
+        <v>0.1820977853926526</v>
       </c>
       <c r="T12">
-        <v>0.2426610393834889</v>
+        <v>0.1820977853926526</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>277.340215</v>
+        <v>138.1628113333333</v>
       </c>
       <c r="H13">
-        <v>832.0206450000001</v>
+        <v>414.488434</v>
       </c>
       <c r="I13">
-        <v>0.3300805865050695</v>
+        <v>0.2287442882675098</v>
       </c>
       <c r="J13">
-        <v>0.3300805865050695</v>
+        <v>0.2287442882675098</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>2.975427</v>
       </c>
       <c r="O13">
-        <v>0.04655993593771484</v>
+        <v>0.05100527512565552</v>
       </c>
       <c r="P13">
-        <v>0.04655993593771483</v>
+        <v>0.05100527512565553</v>
       </c>
       <c r="Q13">
-        <v>275.068521298935</v>
+        <v>137.031119745702</v>
       </c>
       <c r="R13">
-        <v>2475.616691690415</v>
+        <v>1233.280077711318</v>
       </c>
       <c r="S13">
-        <v>0.01536853096195938</v>
+        <v>0.0116671653565066</v>
       </c>
       <c r="T13">
-        <v>0.01536853096195938</v>
+        <v>0.0116671653565066</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>277.340215</v>
+        <v>138.1628113333333</v>
       </c>
       <c r="H14">
-        <v>832.0206450000001</v>
+        <v>414.488434</v>
       </c>
       <c r="I14">
-        <v>0.3300805865050695</v>
+        <v>0.2287442882675098</v>
       </c>
       <c r="J14">
-        <v>0.3300805865050695</v>
+        <v>0.2287442882675098</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1302,28 +1302,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.08833166666666666</v>
+        <v>0.171678</v>
       </c>
       <c r="N14">
-        <v>0.264995</v>
+        <v>0.515034</v>
       </c>
       <c r="O14">
-        <v>0.004146682215297079</v>
+        <v>0.008828800326496623</v>
       </c>
       <c r="P14">
-        <v>0.004146682215297079</v>
+        <v>0.008828800326496624</v>
       </c>
       <c r="Q14">
-        <v>24.49792342464166</v>
+        <v>23.719515124084</v>
       </c>
       <c r="R14">
-        <v>220.481310821775</v>
+        <v>213.475636116756</v>
       </c>
       <c r="S14">
-        <v>0.001368739297675401</v>
+        <v>0.002019537646940428</v>
       </c>
       <c r="T14">
-        <v>0.001368739297675401</v>
+        <v>0.002019537646940428</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>277.340215</v>
+        <v>138.1628113333333</v>
       </c>
       <c r="H15">
-        <v>832.0206450000001</v>
+        <v>414.488434</v>
       </c>
       <c r="I15">
-        <v>0.3300805865050695</v>
+        <v>0.2287442882675098</v>
       </c>
       <c r="J15">
-        <v>0.3300805865050695</v>
+        <v>0.2287442882675098</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>4.552757666666667</v>
+        <v>2.688466333333334</v>
       </c>
       <c r="N15">
-        <v>13.658273</v>
+        <v>8.065399000000001</v>
       </c>
       <c r="O15">
-        <v>0.2137267410357641</v>
+        <v>0.1382584398787761</v>
       </c>
       <c r="P15">
-        <v>0.2137267410357641</v>
+        <v>0.1382584398787761</v>
       </c>
       <c r="Q15">
-        <v>1262.662790116232</v>
+        <v>371.4460667883519</v>
       </c>
       <c r="R15">
-        <v>11363.96511104609</v>
+        <v>3343.014601095166</v>
       </c>
       <c r="S15">
-        <v>0.07054704803290211</v>
+        <v>0.03162582842704693</v>
       </c>
       <c r="T15">
-        <v>0.0705470480329021</v>
+        <v>0.03162582842704692</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>277.340215</v>
+        <v>138.1628113333333</v>
       </c>
       <c r="H16">
-        <v>832.0206450000001</v>
+        <v>414.488434</v>
       </c>
       <c r="I16">
-        <v>0.3300805865050695</v>
+        <v>0.2287442882675098</v>
       </c>
       <c r="J16">
-        <v>0.3300805865050695</v>
+        <v>0.2287442882675098</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1426,28 +1426,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.008727</v>
+        <v>0.113399</v>
       </c>
       <c r="N16">
-        <v>0.026181</v>
+        <v>0.340197</v>
       </c>
       <c r="O16">
-        <v>0.0004096842849061034</v>
+        <v>0.005831714769652435</v>
       </c>
       <c r="P16">
-        <v>0.0004096842849061033</v>
+        <v>0.005831714769652436</v>
       </c>
       <c r="Q16">
-        <v>2.420348056305</v>
+        <v>15.66752464238867</v>
       </c>
       <c r="R16">
-        <v>21.783132506745</v>
+        <v>141.007721781498</v>
       </c>
       <c r="S16">
-        <v>0.0001352288290437166</v>
+        <v>0.001333971444363271</v>
       </c>
       <c r="T16">
-        <v>0.0001352288290437166</v>
+        <v>0.001333971444363271</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>52.01228800000001</v>
+        <v>49.051656</v>
       </c>
       <c r="H17">
-        <v>156.036864</v>
+        <v>147.154968</v>
       </c>
       <c r="I17">
-        <v>0.0619031990312353</v>
+        <v>0.08121060965524597</v>
       </c>
       <c r="J17">
-        <v>0.0619031990312353</v>
+        <v>0.08121060965524596</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>15.66014366666667</v>
+        <v>15.47987166666667</v>
       </c>
       <c r="N17">
-        <v>46.980431</v>
+        <v>46.439615</v>
       </c>
       <c r="O17">
-        <v>0.735156956526318</v>
+        <v>0.7960757698994193</v>
       </c>
       <c r="P17">
-        <v>0.7351569565263179</v>
+        <v>0.7960757698994194</v>
       </c>
       <c r="Q17">
-        <v>814.5199025120428</v>
+        <v>759.3133399174801</v>
       </c>
       <c r="R17">
-        <v>7330.679122608385</v>
+        <v>6833.82005925732</v>
       </c>
       <c r="S17">
-        <v>0.04550856739904586</v>
+        <v>0.06464979860530115</v>
       </c>
       <c r="T17">
-        <v>0.04550856739904585</v>
+        <v>0.06464979860530115</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>52.01228800000001</v>
+        <v>49.051656</v>
       </c>
       <c r="H18">
-        <v>156.036864</v>
+        <v>147.154968</v>
       </c>
       <c r="I18">
-        <v>0.0619031990312353</v>
+        <v>0.08121060965524597</v>
       </c>
       <c r="J18">
-        <v>0.0619031990312353</v>
+        <v>0.08121060965524596</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>2.975427</v>
       </c>
       <c r="O18">
-        <v>0.04655993593771484</v>
+        <v>0.05100527512565552</v>
       </c>
       <c r="P18">
-        <v>0.04655993593771483</v>
+        <v>0.05100527512565553</v>
       </c>
       <c r="Q18">
-        <v>51.586255348992</v>
+        <v>48.649873885704</v>
       </c>
       <c r="R18">
-        <v>464.276298140928</v>
+        <v>437.848864971336</v>
       </c>
       <c r="S18">
-        <v>0.002882208981233927</v>
+        <v>0.004142169488588037</v>
       </c>
       <c r="T18">
-        <v>0.002882208981233926</v>
+        <v>0.004142169488588037</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>52.01228800000001</v>
+        <v>49.051656</v>
       </c>
       <c r="H19">
-        <v>156.036864</v>
+        <v>147.154968</v>
       </c>
       <c r="I19">
-        <v>0.0619031990312353</v>
+        <v>0.08121060965524597</v>
       </c>
       <c r="J19">
-        <v>0.0619031990312353</v>
+        <v>0.08121060965524596</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -1612,28 +1612,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>0.08833166666666666</v>
+        <v>0.171678</v>
       </c>
       <c r="N19">
-        <v>0.264995</v>
+        <v>0.515034</v>
       </c>
       <c r="O19">
-        <v>0.004146682215297079</v>
+        <v>0.008828800326496623</v>
       </c>
       <c r="P19">
-        <v>0.004146682215297079</v>
+        <v>0.008828800326496624</v>
       </c>
       <c r="Q19">
-        <v>4.594332086186666</v>
+        <v>8.421090198768001</v>
       </c>
       <c r="R19">
-        <v>41.34898877568</v>
+        <v>75.78981178891199</v>
       </c>
       <c r="S19">
-        <v>0.0002566928944928188</v>
+        <v>0.0007169922570392254</v>
       </c>
       <c r="T19">
-        <v>0.0002566928944928188</v>
+        <v>0.0007169922570392255</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>52.01228800000001</v>
+        <v>49.051656</v>
       </c>
       <c r="H20">
-        <v>156.036864</v>
+        <v>147.154968</v>
       </c>
       <c r="I20">
-        <v>0.0619031990312353</v>
+        <v>0.08121060965524597</v>
       </c>
       <c r="J20">
-        <v>0.0619031990312353</v>
+        <v>0.08121060965524596</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>4.552757666666667</v>
+        <v>2.688466333333334</v>
       </c>
       <c r="N20">
-        <v>13.658273</v>
+        <v>8.065399000000001</v>
       </c>
       <c r="O20">
-        <v>0.2137267410357641</v>
+        <v>0.1382584398787761</v>
       </c>
       <c r="P20">
-        <v>0.2137267410357641</v>
+        <v>0.1382584398787761</v>
       </c>
       <c r="Q20">
-        <v>236.7993429528747</v>
+        <v>131.873725750248</v>
       </c>
       <c r="R20">
-        <v>2131.194086575872</v>
+        <v>1186.863531752232</v>
       </c>
       <c r="S20">
-        <v>0.01323036898863419</v>
+        <v>0.01122805219253858</v>
       </c>
       <c r="T20">
-        <v>0.01323036898863419</v>
+        <v>0.01122805219253857</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>52.01228800000001</v>
+        <v>49.051656</v>
       </c>
       <c r="H21">
-        <v>156.036864</v>
+        <v>147.154968</v>
       </c>
       <c r="I21">
-        <v>0.0619031990312353</v>
+        <v>0.08121060965524597</v>
       </c>
       <c r="J21">
-        <v>0.0619031990312353</v>
+        <v>0.08121060965524596</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -1736,28 +1736,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>0.008727</v>
+        <v>0.113399</v>
       </c>
       <c r="N21">
-        <v>0.026181</v>
+        <v>0.340197</v>
       </c>
       <c r="O21">
-        <v>0.0004096842849061034</v>
+        <v>0.005831714769652435</v>
       </c>
       <c r="P21">
-        <v>0.0004096842849061033</v>
+        <v>0.005831714769652436</v>
       </c>
       <c r="Q21">
-        <v>0.4539112373760001</v>
+        <v>5.562408738744001</v>
       </c>
       <c r="R21">
-        <v>4.085201136384</v>
+        <v>50.061678648696</v>
       </c>
       <c r="S21">
-        <v>2.536076782851183E-05</v>
+        <v>0.0004735971117789766</v>
       </c>
       <c r="T21">
-        <v>2.536076782851182E-05</v>
+        <v>0.0004735971117789766</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>191.058024</v>
+        <v>106.3337146666667</v>
       </c>
       <c r="H22">
-        <v>573.174072</v>
+        <v>319.001144</v>
       </c>
       <c r="I22">
-        <v>0.22739055213619</v>
+        <v>0.1760475894022206</v>
       </c>
       <c r="J22">
-        <v>0.22739055213619</v>
+        <v>0.1760475894022206</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>15.66014366666667</v>
+        <v>15.47987166666667</v>
       </c>
       <c r="N22">
-        <v>46.980431</v>
+        <v>46.439615</v>
       </c>
       <c r="O22">
-        <v>0.735156956526318</v>
+        <v>0.7960757698994193</v>
       </c>
       <c r="P22">
-        <v>0.7351569565263179</v>
+        <v>0.7960757698994194</v>
       </c>
       <c r="Q22">
-        <v>2991.996104509449</v>
+        <v>1646.032256879951</v>
       </c>
       <c r="R22">
-        <v>26927.96494058504</v>
+        <v>14814.29031191956</v>
       </c>
       <c r="S22">
-        <v>0.1671677462512805</v>
+        <v>0.1401472202723096</v>
       </c>
       <c r="T22">
-        <v>0.1671677462512804</v>
+        <v>0.1401472202723096</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>191.058024</v>
+        <v>106.3337146666667</v>
       </c>
       <c r="H23">
-        <v>573.174072</v>
+        <v>319.001144</v>
       </c>
       <c r="I23">
-        <v>0.22739055213619</v>
+        <v>0.1760475894022206</v>
       </c>
       <c r="J23">
-        <v>0.22739055213619</v>
+        <v>0.1760475894022206</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>2.975427</v>
       </c>
       <c r="O23">
-        <v>0.04655993593771484</v>
+        <v>0.05100527512565552</v>
       </c>
       <c r="P23">
-        <v>0.04655993593771483</v>
+        <v>0.05100527512565553</v>
       </c>
       <c r="Q23">
-        <v>189.493067725416</v>
+        <v>105.462735209832</v>
       </c>
       <c r="R23">
-        <v>1705.437609528744</v>
+        <v>949.164616888488</v>
       </c>
       <c r="S23">
-        <v>0.01058728954030261</v>
+        <v>0.0089793557326687</v>
       </c>
       <c r="T23">
-        <v>0.01058728954030261</v>
+        <v>0.0089793557326687</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>191.058024</v>
+        <v>106.3337146666667</v>
       </c>
       <c r="H24">
-        <v>573.174072</v>
+        <v>319.001144</v>
       </c>
       <c r="I24">
-        <v>0.22739055213619</v>
+        <v>0.1760475894022206</v>
       </c>
       <c r="J24">
-        <v>0.22739055213619</v>
+        <v>0.1760475894022206</v>
       </c>
       <c r="K24">
         <v>2</v>
@@ -1922,28 +1922,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M24">
-        <v>0.08833166666666666</v>
+        <v>0.171678</v>
       </c>
       <c r="N24">
-        <v>0.264995</v>
+        <v>0.515034</v>
       </c>
       <c r="O24">
-        <v>0.004146682215297079</v>
+        <v>0.008828800326496623</v>
       </c>
       <c r="P24">
-        <v>0.004146682215297079</v>
+        <v>0.008828800326496624</v>
       </c>
       <c r="Q24">
-        <v>16.87647368996</v>
+        <v>18.255159466544</v>
       </c>
       <c r="R24">
-        <v>151.88826320964</v>
+        <v>164.296435198896</v>
       </c>
       <c r="S24">
-        <v>0.0009429163584697224</v>
+        <v>0.001554289014793269</v>
       </c>
       <c r="T24">
-        <v>0.0009429163584697224</v>
+        <v>0.001554289014793269</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>191.058024</v>
+        <v>106.3337146666667</v>
       </c>
       <c r="H25">
-        <v>573.174072</v>
+        <v>319.001144</v>
       </c>
       <c r="I25">
-        <v>0.22739055213619</v>
+        <v>0.1760475894022206</v>
       </c>
       <c r="J25">
-        <v>0.22739055213619</v>
+        <v>0.1760475894022206</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>4.552757666666667</v>
+        <v>2.688466333333334</v>
       </c>
       <c r="N25">
-        <v>13.658273</v>
+        <v>8.065399000000001</v>
       </c>
       <c r="O25">
-        <v>0.2137267410357641</v>
+        <v>0.1382584398787761</v>
       </c>
       <c r="P25">
-        <v>0.2137267410357641</v>
+        <v>0.1382584398787761</v>
       </c>
       <c r="Q25">
-        <v>869.8408835441842</v>
+        <v>285.8746119796063</v>
       </c>
       <c r="R25">
-        <v>7828.567951897657</v>
+        <v>2572.871507816456</v>
       </c>
       <c r="S25">
-        <v>0.04859944165039089</v>
+        <v>0.02434006505517037</v>
       </c>
       <c r="T25">
-        <v>0.04859944165039089</v>
+        <v>0.02434006505517037</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>191.058024</v>
+        <v>106.3337146666667</v>
       </c>
       <c r="H26">
-        <v>573.174072</v>
+        <v>319.001144</v>
       </c>
       <c r="I26">
-        <v>0.22739055213619</v>
+        <v>0.1760475894022206</v>
       </c>
       <c r="J26">
-        <v>0.22739055213619</v>
+        <v>0.1760475894022206</v>
       </c>
       <c r="K26">
         <v>1</v>
@@ -2046,28 +2046,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M26">
-        <v>0.008727</v>
+        <v>0.113399</v>
       </c>
       <c r="N26">
-        <v>0.026181</v>
+        <v>0.340197</v>
       </c>
       <c r="O26">
-        <v>0.0004096842849061034</v>
+        <v>0.005831714769652435</v>
       </c>
       <c r="P26">
-        <v>0.0004096842849061033</v>
+        <v>0.005831714769652436</v>
       </c>
       <c r="Q26">
-        <v>1.667363375448</v>
+        <v>12.05813690948533</v>
       </c>
       <c r="R26">
-        <v>15.006270379032</v>
+        <v>108.523232185368</v>
       </c>
       <c r="S26">
-        <v>9.315833574631902E-05</v>
+        <v>0.001026659327278637</v>
       </c>
       <c r="T26">
-        <v>9.315833574631899E-05</v>
+        <v>0.001026659327278637</v>
       </c>
     </row>
   </sheetData>
